--- a/analysis/pre_gemini_data/participant210/task_med.xlsx
+++ b/analysis/pre_gemini_data/participant210/task_med.xlsx
@@ -14,7 +14,131 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+  <si>
+    <t>arg</t>
+  </si>
+  <si>
+    <t>arg2</t>
+  </si>
+  <si>
+    <t>arg3</t>
+  </si>
+  <si>
+    <t>arg5</t>
+  </si>
+  <si>
+    <t>arg6</t>
+  </si>
+  <si>
+    <t>arg7</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>assign2</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>condbody</t>
+  </si>
+  <si>
+    <t>condbody2</t>
+  </si>
+  <si>
+    <t>condsta3</t>
+  </si>
+  <si>
+    <t>condstat</t>
+  </si>
+  <si>
+    <t>condstat2</t>
+  </si>
+  <si>
+    <t>exceptin</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>gemini</t>
+  </si>
+  <si>
+    <t>literal</t>
+  </si>
+  <si>
+    <t>literal2</t>
+  </si>
+  <si>
+    <t>loopody</t>
+  </si>
+  <si>
+    <t>loopstat</t>
+  </si>
+  <si>
+    <t>methddec</t>
+  </si>
+  <si>
+    <t>methdocall</t>
+  </si>
+  <si>
+    <t>methdocall2</t>
+  </si>
+  <si>
+    <t>methdocall3</t>
+  </si>
+  <si>
+    <t>methdocall4</t>
+  </si>
+  <si>
+    <t>methdocall5</t>
+  </si>
+  <si>
+    <t>methdocall6</t>
+  </si>
+  <si>
+    <t>param2</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>var2</t>
+  </si>
+  <si>
+    <t>var3</t>
+  </si>
+  <si>
+    <t>Fixation based metrics</t>
+  </si>
+  <si>
+    <t>Revisit count</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Fixation count</t>
+  </si>
+  <si>
+    <t>Dwell time (ms)</t>
+  </si>
+  <si>
+    <t>Dwell time (%)</t>
+  </si>
+  <si>
+    <t>Fixation duration (ms)</t>
+  </si>
+  <si>
+    <t>First fixation duration (ms)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,9 +173,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -359,70 +489,158 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -448,174 +666,690 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2">
+        <v>83</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2">
+        <v>55</v>
+      </c>
+      <c r="M3" s="2">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>17</v>
+      </c>
+      <c r="O3" s="2">
+        <v>18</v>
+      </c>
+      <c r="P3" s="2">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="2">
+        <v>29</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2">
+        <v>85</v>
+      </c>
+      <c r="V3" s="2">
+        <v>11</v>
+      </c>
+      <c r="W3" s="2">
+        <v>3</v>
+      </c>
+      <c r="X3" s="2">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>7</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2">
+        <v>204</v>
+      </c>
+      <c r="K4" s="2">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>93</v>
+      </c>
+      <c r="M4" s="2">
+        <v>44</v>
+      </c>
+      <c r="N4" s="2">
+        <v>21</v>
+      </c>
+      <c r="O4" s="2">
+        <v>21</v>
+      </c>
+      <c r="P4" s="2">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="2">
+        <v>369</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="2">
+        <v>7</v>
+      </c>
+      <c r="U4" s="2">
+        <v>174</v>
+      </c>
+      <c r="V4" s="2">
+        <v>18</v>
+      </c>
+      <c r="W4" s="2">
+        <v>5</v>
+      </c>
+      <c r="X4" s="2">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>16</v>
+      </c>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1384.79</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2519.03</v>
+      </c>
+      <c r="D5" s="3">
+        <v>517.19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3804.02</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1334.73</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4321.23</v>
+      </c>
+      <c r="H5" s="3">
+        <v>18686.53</v>
+      </c>
+      <c r="I5" s="3">
+        <v>19020.28</v>
+      </c>
+      <c r="J5" s="3">
+        <v>89360.85</v>
+      </c>
+      <c r="K5" s="3">
+        <v>12329.43</v>
+      </c>
+      <c r="L5" s="3">
+        <v>43412.69</v>
+      </c>
+      <c r="M5" s="3">
+        <v>21906.99</v>
+      </c>
+      <c r="N5" s="3">
+        <v>12079.26</v>
+      </c>
+      <c r="O5" s="3">
+        <v>12213.5</v>
+      </c>
+      <c r="P5" s="3">
+        <v>19053.62</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="3">
+        <v>104593.22</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="3">
+        <v>3336.85</v>
+      </c>
+      <c r="U5" s="3">
+        <v>79766.36</v>
+      </c>
+      <c r="V5" s="3">
+        <v>8842.43</v>
+      </c>
+      <c r="W5" s="3">
+        <v>2619.4</v>
+      </c>
+      <c r="X5" s="3">
+        <v>9209.36</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>2552.1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>3019.84</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>7808.75</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>4655.03</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>13197.82</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1134.56</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>182711.25</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>2953.12</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>5355.28</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>11462.31</v>
+      </c>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5.89</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3">
+        <v>28.18</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3.89</v>
+      </c>
+      <c r="L6" s="3">
+        <v>13.69</v>
+      </c>
+      <c r="M6" s="3">
+        <v>6.91</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="O6" s="3">
+        <v>3.85</v>
+      </c>
+      <c r="P6" s="3">
+        <v>6.01</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="3">
+        <v>33.03</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="U6" s="3">
+        <v>25.16</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2.79</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="X6" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>2.46</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>4.16</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>57.62</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>3.61</v>
+      </c>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3">
+        <v>461.6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>419.84</v>
+      </c>
+      <c r="D7" s="3">
+        <v>517.19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>475.5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>667.37</v>
+      </c>
+      <c r="G7" s="3">
+        <v>392.84</v>
+      </c>
+      <c r="H7" s="3">
+        <v>549.6</v>
+      </c>
+      <c r="I7" s="3">
+        <v>528.34</v>
+      </c>
+      <c r="J7" s="3">
+        <v>438.04</v>
+      </c>
+      <c r="K7" s="3">
+        <v>684.97</v>
+      </c>
+      <c r="L7" s="3">
+        <v>466.8</v>
+      </c>
+      <c r="M7" s="3">
+        <v>497.89</v>
+      </c>
+      <c r="N7" s="3">
+        <v>575.2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>581.6</v>
+      </c>
+      <c r="P7" s="3">
+        <v>433.04</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="3">
+        <v>283.45</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="3">
+        <v>476.69</v>
+      </c>
+      <c r="U7" s="3">
+        <v>458.43</v>
+      </c>
+      <c r="V7" s="3">
+        <v>491.25</v>
+      </c>
+      <c r="W7" s="3">
+        <v>523.88</v>
+      </c>
+      <c r="X7" s="3">
+        <v>613.96</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>510.42</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>603.97</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>600.67</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>423.18</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>471.35</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>567.28</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>557.05</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>421.87</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>669.41</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>716.39</v>
+      </c>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3">
+        <v>383.69</v>
+      </c>
+      <c r="C8" s="3">
+        <v>100.06</v>
+      </c>
+      <c r="D8" s="3">
+        <v>517.19</v>
+      </c>
+      <c r="E8" s="3">
+        <v>216.85</v>
+      </c>
+      <c r="F8" s="3">
+        <v>300.31</v>
+      </c>
+      <c r="G8" s="3">
+        <v>266.96</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100.06</v>
+      </c>
+      <c r="I8" s="3">
+        <v>216.85</v>
+      </c>
+      <c r="J8" s="3">
+        <v>216.85</v>
+      </c>
+      <c r="K8" s="3">
+        <v>166.88</v>
+      </c>
+      <c r="L8" s="3">
+        <v>216.85</v>
+      </c>
+      <c r="M8" s="3">
+        <v>150.19</v>
+      </c>
+      <c r="N8" s="3">
+        <v>583.91</v>
+      </c>
+      <c r="O8" s="3">
+        <v>216.85</v>
+      </c>
+      <c r="P8" s="3">
+        <v>316.98</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="3">
+        <v>133.42</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="3">
+        <v>433.79</v>
+      </c>
+      <c r="U8" s="3">
+        <v>216.85</v>
+      </c>
+      <c r="V8" s="3">
+        <v>250.22</v>
+      </c>
+      <c r="W8" s="3">
+        <v>583.91</v>
+      </c>
+      <c r="X8" s="3">
+        <v>216.92</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>383.69</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>684.06</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>316.98</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>183.61</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>150.19</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>417.11</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>266.91</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>583.91</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>166.88</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>183.47</v>
+      </c>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
